--- a/artfynd/A 11705-2024 artfynd.xlsx
+++ b/artfynd/A 11705-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,6 +801,4524 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>131257487</v>
+      </c>
+      <c r="B3" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>488926</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6665146</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131257646</v>
+      </c>
+      <c r="B4" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>488914</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6665193</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>11:59</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131256691</v>
+      </c>
+      <c r="B5" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>488667</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6665262</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ringhack på gran.</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131260583</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>488834</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6665228</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131257424</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>488876</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6665177</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131255793</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>488817</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6665110</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar.</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131257188</v>
+      </c>
+      <c r="B9" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>488804</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6665288</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>11:17</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>11:17</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Rikligt.</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131256423</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>488671</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6665267</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131256730</v>
+      </c>
+      <c r="B11" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>488689</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6665231</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>10:58</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Gran.</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131260641</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>488859</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6665292</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack på gran.</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131257520</v>
+      </c>
+      <c r="B13" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>488939</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6665149</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131257290</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>488842</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6665224</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>11:26</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>11:26</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131256673</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>488652</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6665282</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>10:54</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131255096</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>488961</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6665423</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>09:06</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>09:06</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Gran.</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131257479</v>
+      </c>
+      <c r="B17" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>488908</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6665154</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Stambrott. Hängande låga.</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131256750</v>
+      </c>
+      <c r="B18" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>488704</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6665241</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131256401</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>488679</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6665255</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>10:37</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131256403</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>488680</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6665257</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131257637</v>
+      </c>
+      <c r="B21" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>488909</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6665191</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>11:57</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131255771</v>
+      </c>
+      <c r="B22" t="n">
+        <v>81229</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Microcalicium ahlneri</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>488818</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6665110</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131257316</v>
+      </c>
+      <c r="B23" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>488852</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6665209</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>11:28</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>11:28</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131257642</v>
+      </c>
+      <c r="B24" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>488913</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6665191</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131257045</v>
+      </c>
+      <c r="B25" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>488760</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6665302</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Gran.</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131257650</v>
+      </c>
+      <c r="B26" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>488911</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6665227</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131257544</v>
+      </c>
+      <c r="B27" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>488940</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6665149</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>11:42</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131256649</v>
+      </c>
+      <c r="B28" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>488685</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6665288</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>10:52</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>10:52</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Gran.</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131255910</v>
+      </c>
+      <c r="B29" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>488763</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6665157</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>10:03</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Tall.</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131257239</v>
+      </c>
+      <c r="B30" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>488852</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6665286</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Barkfläk, hagelsalva.</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>131258531</v>
+      </c>
+      <c r="B31" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>488725</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6665212</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>131258537</v>
+      </c>
+      <c r="B32" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>488726</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6665209</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131255108</v>
+      </c>
+      <c r="B33" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>488978</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6665417</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Gran.</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>131257659</v>
+      </c>
+      <c r="B34" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>488901</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6665222</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>12:02</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Ringhack på tall.</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>131257913</v>
+      </c>
+      <c r="B35" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>488913</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6665358</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>12:11</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>12:11</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>131256459</v>
+      </c>
+      <c r="B36" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>488669</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6665268</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Färska och äldre hack.</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>131257385</v>
+      </c>
+      <c r="B37" t="n">
+        <v>91829</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>488876</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6665194</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>11:31</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Lågstubbe.</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>131260531</v>
+      </c>
+      <c r="B38" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>488786</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6665188</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>15:25</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>131257731</v>
+      </c>
+      <c r="B39" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>488874</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6665272</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>12:07</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>12:07</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>131257440</v>
+      </c>
+      <c r="B40" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>488885</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6665181</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>131257035</v>
+      </c>
+      <c r="B41" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>488760</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6665301</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>131257343</v>
+      </c>
+      <c r="B42" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>488872</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6665191</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Mycket barkfläk, hagelsalvor på många träd, skalade klena senvuxna granar.</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Karl Ericson</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 11705-2024 artfynd.xlsx
+++ b/artfynd/A 11705-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY42"/>
+  <dimension ref="A1:AY45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131256691</v>
+        <v>131260583</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1063,7 +1063,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488667</v>
+        <v>488834</v>
       </c>
       <c r="R5" t="n">
-        <v>6665262</v>
+        <v>6665228</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1149,7 +1149,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131260583</v>
+        <v>131256691</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1180,7 +1180,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>488834</v>
+        <v>488667</v>
       </c>
       <c r="R6" t="n">
-        <v>6665228</v>
+        <v>6665262</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1827,10 +1827,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131260641</v>
+        <v>131257520</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1838,39 +1838,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>488859</v>
+        <v>488939</v>
       </c>
       <c r="R12" t="n">
-        <v>6665292</v>
+        <v>6665149</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1902,7 +1897,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1912,12 +1907,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1944,10 +1939,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131257520</v>
+        <v>131256673</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1955,34 +1950,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>488939</v>
+        <v>488652</v>
       </c>
       <c r="R13" t="n">
-        <v>6665149</v>
+        <v>6665282</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2056,7 +2056,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131257290</v>
+        <v>131260641</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>488842</v>
+        <v>488859</v>
       </c>
       <c r="R14" t="n">
-        <v>6665224</v>
+        <v>6665292</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2173,7 +2173,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131256673</v>
+        <v>131257290</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>488652</v>
+        <v>488842</v>
       </c>
       <c r="R15" t="n">
-        <v>6665282</v>
+        <v>6665224</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3289,7 +3289,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131257045</v>
+        <v>131257650</v>
       </c>
       <c r="B25" t="n">
         <v>79244</v>
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>488760</v>
+        <v>488911</v>
       </c>
       <c r="R25" t="n">
-        <v>6665302</v>
+        <v>6665227</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3401,7 +3401,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131257650</v>
+        <v>131257045</v>
       </c>
       <c r="B26" t="n">
         <v>79244</v>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>488911</v>
+        <v>488760</v>
       </c>
       <c r="R26" t="n">
-        <v>6665227</v>
+        <v>6665302</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3625,10 +3625,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131256649</v>
+        <v>131257239</v>
       </c>
       <c r="B28" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3636,34 +3636,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>488685</v>
+        <v>488852</v>
       </c>
       <c r="R28" t="n">
-        <v>6665288</v>
+        <v>6665286</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3695,7 +3700,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3705,12 +3710,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Barkfläk, hagelsalva.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3737,7 +3742,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131255910</v>
+        <v>131256649</v>
       </c>
       <c r="B29" t="n">
         <v>79244</v>
@@ -3772,10 +3777,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>488763</v>
+        <v>488685</v>
       </c>
       <c r="R29" t="n">
-        <v>6665157</v>
+        <v>6665288</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3807,7 +3812,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3817,12 +3822,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Tall.</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3849,10 +3854,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131257239</v>
+        <v>131255910</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3860,39 +3865,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>488852</v>
+        <v>488763</v>
       </c>
       <c r="R30" t="n">
-        <v>6665286</v>
+        <v>6665157</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Barkfläk, hagelsalva.</t>
+          <t>Tall.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4078,10 +4078,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131258537</v>
+        <v>131257659</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4089,34 +4089,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>488726</v>
+        <v>488901</v>
       </c>
       <c r="R32" t="n">
-        <v>6665209</v>
+        <v>6665222</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4148,7 +4153,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4158,12 +4163,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4302,10 +4307,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131257659</v>
+        <v>131258537</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4313,39 +4318,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>488901</v>
+        <v>488726</v>
       </c>
       <c r="R34" t="n">
-        <v>6665222</v>
+        <v>6665209</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4387,12 +4387,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -5092,10 +5092,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131257035</v>
+        <v>131257343</v>
       </c>
       <c r="B41" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5103,34 +5103,39 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>488760</v>
+        <v>488872</v>
       </c>
       <c r="R41" t="n">
-        <v>6665301</v>
+        <v>6665191</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5162,7 +5167,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5172,12 +5177,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Mycket barkfläk, hagelsalvor på många träd, skalade klena senvuxna granar.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5204,10 +5209,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131257343</v>
+        <v>131257035</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5215,39 +5220,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>488872</v>
+        <v>488760</v>
       </c>
       <c r="R42" t="n">
-        <v>6665191</v>
+        <v>6665301</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5289,12 +5289,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Mycket barkfläk, hagelsalvor på många träd, skalade klena senvuxna granar.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5318,6 +5318,309 @@
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>131273946</v>
+      </c>
+      <c r="B43" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>488774</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6665353</v>
+      </c>
+      <c r="S43" t="n">
+        <v>50</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>131273991</v>
+      </c>
+      <c r="B44" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>488928</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6665146</v>
+      </c>
+      <c r="S44" t="n">
+        <v>50</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>131273940</v>
+      </c>
+      <c r="B45" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Hyttfallet, Dlr</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>488785</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6665325</v>
+      </c>
+      <c r="S45" t="n">
+        <v>50</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Ludvika</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Grangärde</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 11705-2024 artfynd.xlsx
+++ b/artfynd/A 11705-2024 artfynd.xlsx
@@ -923,7 +923,7 @@
         <v>131257646</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131260583</v>
+        <v>131256691</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1063,7 +1063,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488834</v>
+        <v>488667</v>
       </c>
       <c r="R5" t="n">
-        <v>6665228</v>
+        <v>6665262</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1149,7 +1149,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131256691</v>
+        <v>131260583</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1180,7 +1180,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>488667</v>
+        <v>488834</v>
       </c>
       <c r="R6" t="n">
-        <v>6665262</v>
+        <v>6665228</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1269,7 +1269,7 @@
         <v>131257424</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>131255793</v>
       </c>
       <c r="B8" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>131257188</v>
       </c>
       <c r="B9" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>131256730</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>131257520</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131256673</v>
+        <v>131260641</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1979,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>488652</v>
+        <v>488859</v>
       </c>
       <c r="R13" t="n">
-        <v>6665282</v>
+        <v>6665292</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2056,7 +2056,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131260641</v>
+        <v>131257290</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>488859</v>
+        <v>488842</v>
       </c>
       <c r="R14" t="n">
-        <v>6665292</v>
+        <v>6665224</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2173,7 +2173,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131257290</v>
+        <v>131256673</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>488842</v>
+        <v>488652</v>
       </c>
       <c r="R15" t="n">
-        <v>6665224</v>
+        <v>6665282</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2293,7 +2293,7 @@
         <v>131255096</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>131257479</v>
       </c>
       <c r="B17" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>131256750</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>131256401</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>131256403</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>131257637</v>
       </c>
       <c r="B21" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>131255771</v>
       </c>
       <c r="B22" t="n">
-        <v>81229</v>
+        <v>81230</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>131257316</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>131257642</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131257650</v>
+        <v>131257045</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>488911</v>
+        <v>488760</v>
       </c>
       <c r="R25" t="n">
-        <v>6665227</v>
+        <v>6665302</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3401,10 +3401,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131257045</v>
+        <v>131257650</v>
       </c>
       <c r="B26" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>488760</v>
+        <v>488911</v>
       </c>
       <c r="R26" t="n">
-        <v>6665302</v>
+        <v>6665227</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3516,7 +3516,7 @@
         <v>131257544</v>
       </c>
       <c r="B27" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131257239</v>
+        <v>131256649</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3636,39 +3636,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>488852</v>
+        <v>488685</v>
       </c>
       <c r="R28" t="n">
-        <v>6665286</v>
+        <v>6665288</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3700,7 +3695,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3710,12 +3705,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Barkfläk, hagelsalva.</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3742,10 +3737,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131256649</v>
+        <v>131255910</v>
       </c>
       <c r="B29" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3777,10 +3772,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>488685</v>
+        <v>488763</v>
       </c>
       <c r="R29" t="n">
-        <v>6665288</v>
+        <v>6665157</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3812,7 +3807,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3822,12 +3817,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Tall.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3854,10 +3849,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131255910</v>
+        <v>131258531</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3889,10 +3884,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>488763</v>
+        <v>488725</v>
       </c>
       <c r="R30" t="n">
-        <v>6665157</v>
+        <v>6665212</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3924,7 +3919,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3934,12 +3929,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3966,10 +3961,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131258531</v>
+        <v>131257239</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3977,34 +3972,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>488725</v>
+        <v>488852</v>
       </c>
       <c r="R31" t="n">
-        <v>6665212</v>
+        <v>6665286</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4046,12 +4046,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Barkfläk, hagelsalva.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4078,10 +4078,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131257659</v>
+        <v>131258537</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4089,39 +4089,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>488901</v>
+        <v>488726</v>
       </c>
       <c r="R32" t="n">
-        <v>6665222</v>
+        <v>6665209</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4153,7 +4148,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4163,12 +4158,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4198,7 +4193,7 @@
         <v>131255108</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4307,10 +4302,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131258537</v>
+        <v>131257659</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4318,34 +4313,39 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>488726</v>
+        <v>488901</v>
       </c>
       <c r="R34" t="n">
-        <v>6665209</v>
+        <v>6665222</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4387,12 +4387,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4422,7 +4422,7 @@
         <v>131257913</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4531,10 +4531,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131256459</v>
+        <v>131257385</v>
       </c>
       <c r="B36" t="n">
-        <v>57881</v>
+        <v>91830</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4542,39 +4542,30 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>488669</v>
+        <v>488876</v>
       </c>
       <c r="R36" t="n">
-        <v>6665268</v>
+        <v>6665194</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4606,7 +4597,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4616,12 +4607,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Färska och äldre hack.</t>
+          <t>Lågstubbe.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4648,10 +4639,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131257385</v>
+        <v>131260531</v>
       </c>
       <c r="B37" t="n">
-        <v>91829</v>
+        <v>79245</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4659,19 +4650,23 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4679,10 +4674,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>488876</v>
+        <v>488786</v>
       </c>
       <c r="R37" t="n">
-        <v>6665194</v>
+        <v>6665188</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4714,7 +4709,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4724,12 +4719,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Lågstubbe.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4756,10 +4751,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131260531</v>
+        <v>131256459</v>
       </c>
       <c r="B38" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4767,34 +4762,39 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>488786</v>
+        <v>488669</v>
       </c>
       <c r="R38" t="n">
-        <v>6665188</v>
+        <v>6665268</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Färska och äldre hack.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4871,7 +4871,7 @@
         <v>131257731</v>
       </c>
       <c r="B39" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>131257440</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131257343</v>
+        <v>131257035</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5103,39 +5103,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>488872</v>
+        <v>488760</v>
       </c>
       <c r="R41" t="n">
-        <v>6665191</v>
+        <v>6665301</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5167,7 +5162,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5177,12 +5172,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:29</t>
+          <t>11:09</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Mycket barkfläk, hagelsalvor på många träd, skalade klena senvuxna granar.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5209,10 +5204,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131257035</v>
+        <v>131257343</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5220,34 +5215,39 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>488760</v>
+        <v>488872</v>
       </c>
       <c r="R42" t="n">
-        <v>6665301</v>
+        <v>6665191</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5289,12 +5289,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:09</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Mycket barkfläk, hagelsalvor på många träd, skalade klena senvuxna granar.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5321,10 +5321,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131273946</v>
+        <v>131273991</v>
       </c>
       <c r="B43" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>488774</v>
+        <v>488928</v>
       </c>
       <c r="R43" t="n">
-        <v>6665353</v>
+        <v>6665146</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5422,10 +5422,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131273991</v>
+        <v>131273946</v>
       </c>
       <c r="B44" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5460,10 +5460,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>488928</v>
+        <v>488774</v>
       </c>
       <c r="R44" t="n">
-        <v>6665146</v>
+        <v>6665353</v>
       </c>
       <c r="S44" t="n">
         <v>50</v>
@@ -5526,7 +5526,7 @@
         <v>131273940</v>
       </c>
       <c r="B45" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/artfynd/A 11705-2024 artfynd.xlsx
+++ b/artfynd/A 11705-2024 artfynd.xlsx
@@ -1032,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131256691</v>
+        <v>131257424</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1043,39 +1043,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488667</v>
+        <v>488876</v>
       </c>
       <c r="R5" t="n">
-        <v>6665262</v>
+        <v>6665177</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1107,7 +1102,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1117,12 +1112,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1149,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131260583</v>
+        <v>131255793</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>91830</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1160,39 +1155,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>488834</v>
+        <v>488817</v>
       </c>
       <c r="R6" t="n">
-        <v>6665228</v>
+        <v>6665110</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1224,7 +1210,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1234,12 +1220,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Flera fruktkroppar.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1266,10 +1252,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131257424</v>
+        <v>131256691</v>
       </c>
       <c r="B7" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1277,34 +1263,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>488876</v>
+        <v>488667</v>
       </c>
       <c r="R7" t="n">
-        <v>6665177</v>
+        <v>6665262</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1336,7 +1327,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1346,12 +1337,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1378,10 +1369,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131255793</v>
+        <v>131260583</v>
       </c>
       <c r="B8" t="n">
-        <v>91830</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1389,30 +1380,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>488817</v>
+        <v>488834</v>
       </c>
       <c r="R8" t="n">
-        <v>6665110</v>
+        <v>6665228</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1827,10 +1827,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131257520</v>
+        <v>131257290</v>
       </c>
       <c r="B12" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1838,34 +1838,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>488939</v>
+        <v>488842</v>
       </c>
       <c r="R12" t="n">
-        <v>6665149</v>
+        <v>6665224</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1897,7 +1902,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1907,12 +1912,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1939,7 +1944,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131260641</v>
+        <v>131256673</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1979,10 +1984,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>488859</v>
+        <v>488652</v>
       </c>
       <c r="R13" t="n">
-        <v>6665292</v>
+        <v>6665282</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2014,7 +2019,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2024,12 +2029,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2056,10 +2061,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131257290</v>
+        <v>131257520</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2067,39 +2072,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>488842</v>
+        <v>488939</v>
       </c>
       <c r="R14" t="n">
-        <v>6665224</v>
+        <v>6665149</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2173,7 +2173,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131256673</v>
+        <v>131260641</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>488652</v>
+        <v>488859</v>
       </c>
       <c r="R15" t="n">
-        <v>6665282</v>
+        <v>6665292</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -4531,10 +4531,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131257385</v>
+        <v>131260531</v>
       </c>
       <c r="B36" t="n">
-        <v>91830</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4542,19 +4542,23 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4562,10 +4566,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>488876</v>
+        <v>488786</v>
       </c>
       <c r="R36" t="n">
-        <v>6665194</v>
+        <v>6665188</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4597,7 +4601,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4607,12 +4611,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Lågstubbe.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4639,10 +4643,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131260531</v>
+        <v>131257385</v>
       </c>
       <c r="B37" t="n">
-        <v>79245</v>
+        <v>91830</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4650,23 +4654,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4674,10 +4674,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>488786</v>
+        <v>488876</v>
       </c>
       <c r="R37" t="n">
-        <v>6665188</v>
+        <v>6665194</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4719,12 +4719,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Lågstubbe.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5321,7 +5321,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131273991</v>
+        <v>131273946</v>
       </c>
       <c r="B43" t="n">
         <v>79245</v>
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>488928</v>
+        <v>488774</v>
       </c>
       <c r="R43" t="n">
-        <v>6665146</v>
+        <v>6665353</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131273946</v>
+        <v>131273991</v>
       </c>
       <c r="B44" t="n">
         <v>79245</v>
@@ -5460,10 +5460,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>488774</v>
+        <v>488928</v>
       </c>
       <c r="R44" t="n">
-        <v>6665353</v>
+        <v>6665146</v>
       </c>
       <c r="S44" t="n">
         <v>50</v>

--- a/artfynd/A 11705-2024 artfynd.xlsx
+++ b/artfynd/A 11705-2024 artfynd.xlsx
@@ -1827,10 +1827,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131257290</v>
+        <v>131257520</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1838,39 +1838,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>488842</v>
+        <v>488939</v>
       </c>
       <c r="R12" t="n">
-        <v>6665224</v>
+        <v>6665149</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1902,7 +1897,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1912,12 +1907,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1944,7 +1939,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131256673</v>
+        <v>131260641</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1984,10 +1979,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>488652</v>
+        <v>488859</v>
       </c>
       <c r="R13" t="n">
-        <v>6665282</v>
+        <v>6665292</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2019,7 +2014,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2029,12 +2024,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2061,10 +2056,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131257520</v>
+        <v>131257290</v>
       </c>
       <c r="B14" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2072,34 +2067,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>488939</v>
+        <v>488842</v>
       </c>
       <c r="R14" t="n">
-        <v>6665149</v>
+        <v>6665224</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2173,7 +2173,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131260641</v>
+        <v>131256673</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>488859</v>
+        <v>488652</v>
       </c>
       <c r="R15" t="n">
-        <v>6665292</v>
+        <v>6665282</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>10:54</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -3737,7 +3737,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131255910</v>
+        <v>131258531</v>
       </c>
       <c r="B29" t="n">
         <v>79245</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>488763</v>
+        <v>488725</v>
       </c>
       <c r="R29" t="n">
-        <v>6665157</v>
+        <v>6665212</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Tall.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3849,10 +3849,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131258531</v>
+        <v>131257239</v>
       </c>
       <c r="B30" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3860,34 +3860,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>488725</v>
+        <v>488852</v>
       </c>
       <c r="R30" t="n">
-        <v>6665212</v>
+        <v>6665286</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3919,7 +3924,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3929,12 +3934,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Barkfläk, hagelsalva.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3961,10 +3966,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131257239</v>
+        <v>131255910</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3972,39 +3977,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>488852</v>
+        <v>488763</v>
       </c>
       <c r="R31" t="n">
-        <v>6665286</v>
+        <v>6665157</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4046,12 +4046,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Barkfläk, hagelsalva.</t>
+          <t>Tall.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4531,10 +4531,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131260531</v>
+        <v>131257385</v>
       </c>
       <c r="B36" t="n">
-        <v>79245</v>
+        <v>91830</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4542,23 +4542,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4566,10 +4562,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>488786</v>
+        <v>488876</v>
       </c>
       <c r="R36" t="n">
-        <v>6665188</v>
+        <v>6665194</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4601,7 +4597,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4611,12 +4607,12 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:25</t>
+          <t>11:31</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Lågstubbe.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4643,10 +4639,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131257385</v>
+        <v>131260531</v>
       </c>
       <c r="B37" t="n">
-        <v>91830</v>
+        <v>79245</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4654,19 +4650,23 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4674,10 +4674,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>488876</v>
+        <v>488786</v>
       </c>
       <c r="R37" t="n">
-        <v>6665194</v>
+        <v>6665188</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4719,12 +4719,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:31</t>
+          <t>15:25</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Lågstubbe.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD37" t="b">

--- a/artfynd/A 11705-2024 artfynd.xlsx
+++ b/artfynd/A 11705-2024 artfynd.xlsx
@@ -1032,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131257424</v>
+        <v>131256691</v>
       </c>
       <c r="B5" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1043,34 +1043,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488876</v>
+        <v>488667</v>
       </c>
       <c r="R5" t="n">
-        <v>6665177</v>
+        <v>6665262</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1102,7 +1107,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1112,12 +1117,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Ringhack på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1144,10 +1149,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131255793</v>
+        <v>131260583</v>
       </c>
       <c r="B6" t="n">
-        <v>91830</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1155,30 +1160,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>488817</v>
+        <v>488834</v>
       </c>
       <c r="R6" t="n">
-        <v>6665110</v>
+        <v>6665228</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1210,7 +1224,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1220,12 +1234,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar.</t>
+          <t>Ringhack på tall.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1252,10 +1266,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131256691</v>
+        <v>131257424</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1263,39 +1277,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>488667</v>
+        <v>488876</v>
       </c>
       <c r="R7" t="n">
-        <v>6665262</v>
+        <v>6665177</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1327,7 +1336,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1337,12 +1346,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack på gran.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1369,10 +1378,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131260583</v>
+        <v>131255793</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>91833</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1380,39 +1389,30 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>488834</v>
+        <v>488817</v>
       </c>
       <c r="R8" t="n">
-        <v>6665228</v>
+        <v>6665110</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack på tall.</t>
+          <t>Flera fruktkroppar.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1486,10 +1486,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131257188</v>
+        <v>131256423</v>
       </c>
       <c r="B9" t="n">
-        <v>91830</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1497,33 +1497,51 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>488804</v>
+        <v>488671</v>
       </c>
       <c r="R9" t="n">
-        <v>6665288</v>
+        <v>6665267</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1552,7 +1570,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1562,12 +1580,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:17</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt.</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131256423</v>
+        <v>131257188</v>
       </c>
       <c r="B10" t="n">
-        <v>57881</v>
+        <v>91833</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1605,51 +1618,33 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>488671</v>
+        <v>488804</v>
       </c>
       <c r="R10" t="n">
-        <v>6665267</v>
+        <v>6665288</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1678,7 +1673,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1688,7 +1683,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:17</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Rikligt.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -2405,7 +2405,7 @@
         <v>131257479</v>
       </c>
       <c r="B17" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2958,10 +2958,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131255771</v>
+        <v>131257316</v>
       </c>
       <c r="B22" t="n">
-        <v>81230</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2969,21 +2969,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2993,10 +2993,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>488818</v>
+        <v>488852</v>
       </c>
       <c r="R22" t="n">
-        <v>6665110</v>
+        <v>6665209</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:28</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3038,7 +3038,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:28</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3065,10 +3070,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131257316</v>
+        <v>131255771</v>
       </c>
       <c r="B23" t="n">
-        <v>79245</v>
+        <v>81230</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3076,21 +3081,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3100,10 +3105,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>488852</v>
+        <v>488818</v>
       </c>
       <c r="R23" t="n">
-        <v>6665209</v>
+        <v>6665110</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3135,7 +3140,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:28</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3145,12 +3150,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:28</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Gran</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3737,7 +3737,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131258531</v>
+        <v>131255910</v>
       </c>
       <c r="B29" t="n">
         <v>79245</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>488725</v>
+        <v>488763</v>
       </c>
       <c r="R29" t="n">
-        <v>6665212</v>
+        <v>6665157</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3817,12 +3817,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Tall.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3849,10 +3849,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131257239</v>
+        <v>131258531</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3860,39 +3860,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>488852</v>
+        <v>488725</v>
       </c>
       <c r="R30" t="n">
-        <v>6665286</v>
+        <v>6665212</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3924,7 +3919,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3934,12 +3929,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Barkfläk, hagelsalva.</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3966,10 +3961,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131255910</v>
+        <v>131257239</v>
       </c>
       <c r="B31" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3977,34 +3972,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Hyttfallet, Hyttfallet, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>488763</v>
+        <v>488852</v>
       </c>
       <c r="R31" t="n">
-        <v>6665157</v>
+        <v>6665286</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4046,12 +4046,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Tall.</t>
+          <t>Barkfläk, hagelsalva.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4534,7 +4534,7 @@
         <v>131257385</v>
       </c>
       <c r="B36" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
